--- a/data/outputs/management_altmetric/51.xlsx
+++ b/data/outputs/management_altmetric/51.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE214"/>
+  <dimension ref="A1:CF214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1280,6 +1288,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1521,6 +1532,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1762,6 +1776,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2007,6 +2024,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2258,6 +2278,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2507,6 +2530,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2748,6 +2774,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3005,6 +3034,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3262,6 +3294,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3511,6 +3546,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3760,6 +3798,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3997,6 +4038,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4246,6 +4290,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4505,6 +4552,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4754,6 +4804,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4995,6 +5048,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5244,6 +5300,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5493,6 +5552,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5740,6 +5802,9 @@
         <v>0</v>
       </c>
       <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5971,6 +6036,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6212,6 +6280,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6461,6 +6532,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6710,6 +6784,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6959,6 +7036,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7200,6 +7280,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7447,6 +7530,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7666,6 +7752,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7923,6 +8012,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8172,6 +8264,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8425,6 +8520,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8682,6 +8780,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8923,6 +9024,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9164,6 +9268,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9405,6 +9512,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9650,6 +9760,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9895,6 +10008,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10144,6 +10260,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10385,6 +10504,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10642,6 +10764,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10887,6 +11012,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11144,6 +11272,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11385,6 +11516,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11634,6 +11768,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11889,6 +12026,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12146,6 +12286,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12405,6 +12548,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12658,6 +12804,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12899,6 +13048,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13148,6 +13300,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13389,6 +13544,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13642,6 +13800,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13891,6 +14052,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14140,6 +14304,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14381,6 +14548,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14622,6 +14792,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14867,6 +15040,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15124,6 +15300,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15377,6 +15556,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15626,6 +15808,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15867,6 +16052,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16112,6 +16300,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16361,6 +16552,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16614,6 +16808,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16855,6 +17052,9 @@
       <c r="CE66" t="n">
         <v>0</v>
       </c>
+      <c r="CF66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -17110,6 +17310,9 @@
         <v>0</v>
       </c>
       <c r="CE67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17329,6 +17532,9 @@
       <c r="CE68" t="n">
         <v>0</v>
       </c>
+      <c r="CF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -17558,6 +17764,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17807,6 +18016,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18064,6 +18276,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18313,6 +18528,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18570,6 +18788,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18815,6 +19036,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19064,6 +19288,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19301,6 +19528,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19542,6 +19772,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19791,6 +20024,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20028,6 +20264,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20265,6 +20504,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20510,6 +20752,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20765,6 +21010,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21018,6 +21266,9 @@
       <c r="CE83" t="n">
         <v>0</v>
       </c>
+      <c r="CF83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -21259,6 +21510,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21508,6 +21762,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21765,6 +22022,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22004,6 +22264,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22249,6 +22512,9 @@
       <c r="CE88" t="n">
         <v>0</v>
       </c>
+      <c r="CF88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -22502,6 +22768,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22747,6 +23016,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -22996,6 +23268,9 @@
       <c r="CE91" t="n">
         <v>0</v>
       </c>
+      <c r="CF91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -23253,6 +23528,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23510,6 +23788,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23755,6 +24036,9 @@
       <c r="CE94" t="n">
         <v>0</v>
       </c>
+      <c r="CF94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -24004,6 +24288,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -24253,6 +24540,9 @@
       <c r="CE96" t="n">
         <v>0</v>
       </c>
+      <c r="CF96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -24510,6 +24800,9 @@
       <c r="CE97" t="n">
         <v>0</v>
       </c>
+      <c r="CF97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -24763,6 +25056,9 @@
       <c r="CE98" t="n">
         <v>0</v>
       </c>
+      <c r="CF98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -25004,6 +25300,9 @@
       <c r="CE99" t="n">
         <v>0</v>
       </c>
+      <c r="CF99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -25249,6 +25548,9 @@
       <c r="CE100" t="n">
         <v>0</v>
       </c>
+      <c r="CF100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -25494,6 +25796,9 @@
       <c r="CE101" t="n">
         <v>0</v>
       </c>
+      <c r="CF101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -25743,6 +26048,9 @@
       <c r="CE102" t="n">
         <v>0</v>
       </c>
+      <c r="CF102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -26002,6 +26310,9 @@
       <c r="CE103" t="n">
         <v>0</v>
       </c>
+      <c r="CF103" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -26243,6 +26554,9 @@
       <c r="CE104" t="n">
         <v>0</v>
       </c>
+      <c r="CF104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -26492,6 +26806,9 @@
       <c r="CE105" t="n">
         <v>0</v>
       </c>
+      <c r="CF105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -26729,6 +27046,9 @@
       <c r="CE106" t="n">
         <v>0</v>
       </c>
+      <c r="CF106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -26986,6 +27306,9 @@
       <c r="CE107" t="n">
         <v>0</v>
       </c>
+      <c r="CF107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -27239,6 +27562,9 @@
       <c r="CE108" t="n">
         <v>0</v>
       </c>
+      <c r="CF108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -27480,6 +27806,9 @@
       <c r="CE109" t="n">
         <v>0</v>
       </c>
+      <c r="CF109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -27737,6 +28066,9 @@
       <c r="CE110" t="n">
         <v>0</v>
       </c>
+      <c r="CF110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -27994,6 +28326,9 @@
       <c r="CE111" t="n">
         <v>0</v>
       </c>
+      <c r="CF111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -28247,6 +28582,9 @@
       <c r="CE112" t="n">
         <v>0</v>
       </c>
+      <c r="CF112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -28504,6 +28842,9 @@
       <c r="CE113" t="n">
         <v>0</v>
       </c>
+      <c r="CF113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -28753,6 +29094,9 @@
       <c r="CE114" t="n">
         <v>0</v>
       </c>
+      <c r="CF114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -29002,6 +29346,9 @@
       <c r="CE115" t="n">
         <v>0</v>
       </c>
+      <c r="CF115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -29259,6 +29606,9 @@
       <c r="CE116" t="n">
         <v>0</v>
       </c>
+      <c r="CF116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -29496,6 +29846,9 @@
       <c r="CE117" t="n">
         <v>0</v>
       </c>
+      <c r="CF117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -29737,6 +30090,9 @@
       <c r="CE118" t="n">
         <v>0</v>
       </c>
+      <c r="CF118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -29986,6 +30342,9 @@
       <c r="CE119" t="n">
         <v>0</v>
       </c>
+      <c r="CF119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -30235,6 +30594,9 @@
       <c r="CE120" t="n">
         <v>0</v>
       </c>
+      <c r="CF120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -30480,6 +30842,9 @@
       <c r="CE121" t="n">
         <v>0</v>
       </c>
+      <c r="CF121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -30729,6 +31094,9 @@
       <c r="CE122" t="n">
         <v>0</v>
       </c>
+      <c r="CF122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -30988,6 +31356,9 @@
       <c r="CE123" t="n">
         <v>0</v>
       </c>
+      <c r="CF123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -31237,6 +31608,9 @@
       <c r="CE124" t="n">
         <v>0</v>
       </c>
+      <c r="CF124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -31486,6 +31860,9 @@
       <c r="CE125" t="n">
         <v>0</v>
       </c>
+      <c r="CF125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -31735,6 +32112,9 @@
       <c r="CE126" t="n">
         <v>0</v>
       </c>
+      <c r="CF126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -31984,6 +32364,9 @@
       <c r="CE127" t="n">
         <v>0</v>
       </c>
+      <c r="CF127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -32229,6 +32612,9 @@
       <c r="CE128" t="n">
         <v>0</v>
       </c>
+      <c r="CF128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -32478,6 +32864,9 @@
       <c r="CE129" t="n">
         <v>0</v>
       </c>
+      <c r="CF129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -32727,6 +33116,9 @@
       <c r="CE130" t="n">
         <v>0</v>
       </c>
+      <c r="CF130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -32968,6 +33360,9 @@
       <c r="CE131" t="n">
         <v>0</v>
       </c>
+      <c r="CF131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -33223,6 +33618,9 @@
         <v>0</v>
       </c>
       <c r="CE132" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33442,6 +33840,9 @@
       <c r="CE133" t="n">
         <v>0</v>
       </c>
+      <c r="CF133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -33691,6 +34092,9 @@
       <c r="CE134" t="n">
         <v>0</v>
       </c>
+      <c r="CF134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -33936,6 +34340,9 @@
       <c r="CE135" t="n">
         <v>0</v>
       </c>
+      <c r="CF135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -34185,6 +34592,9 @@
       <c r="CE136" t="n">
         <v>0</v>
       </c>
+      <c r="CF136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -34422,6 +34832,9 @@
       <c r="CE137" t="n">
         <v>0</v>
       </c>
+      <c r="CF137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -34667,6 +35080,9 @@
       <c r="CE138" t="n">
         <v>0</v>
       </c>
+      <c r="CF138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -34916,6 +35332,9 @@
       <c r="CE139" t="n">
         <v>0</v>
       </c>
+      <c r="CF139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -35157,6 +35576,9 @@
       <c r="CE140" t="n">
         <v>0</v>
       </c>
+      <c r="CF140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -35410,6 +35832,9 @@
       <c r="CE141" t="n">
         <v>0</v>
       </c>
+      <c r="CF141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -35651,6 +36076,9 @@
       <c r="CE142" t="n">
         <v>0</v>
       </c>
+      <c r="CF142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -35888,6 +36316,9 @@
       <c r="CE143" t="n">
         <v>0</v>
       </c>
+      <c r="CF143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -36133,6 +36564,9 @@
       <c r="CE144" t="n">
         <v>0</v>
       </c>
+      <c r="CF144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -36370,6 +36804,9 @@
       <c r="CE145" t="n">
         <v>0</v>
       </c>
+      <c r="CF145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -36613,6 +37050,9 @@
       <c r="CE146" t="n">
         <v>0</v>
       </c>
+      <c r="CF146" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -36862,6 +37302,9 @@
       <c r="CE147" t="n">
         <v>0</v>
       </c>
+      <c r="CF147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -37119,6 +37562,9 @@
       <c r="CE148" t="n">
         <v>0</v>
       </c>
+      <c r="CF148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -37372,6 +37818,9 @@
       <c r="CE149" t="n">
         <v>0</v>
       </c>
+      <c r="CF149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -37621,6 +38070,9 @@
       <c r="CE150" t="n">
         <v>0</v>
       </c>
+      <c r="CF150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -37870,6 +38322,9 @@
       <c r="CE151" t="n">
         <v>0</v>
       </c>
+      <c r="CF151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -38119,6 +38574,9 @@
       <c r="CE152" t="n">
         <v>0</v>
       </c>
+      <c r="CF152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -38368,6 +38826,9 @@
       <c r="CE153" t="n">
         <v>0</v>
       </c>
+      <c r="CF153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -38617,6 +39078,9 @@
       <c r="CE154" t="n">
         <v>0</v>
       </c>
+      <c r="CF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -38858,6 +39322,9 @@
       <c r="CE155" t="n">
         <v>0</v>
       </c>
+      <c r="CF155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -39107,6 +39574,9 @@
       <c r="CE156" t="n">
         <v>0</v>
       </c>
+      <c r="CF156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -39356,6 +39826,9 @@
       <c r="CE157" t="n">
         <v>0</v>
       </c>
+      <c r="CF157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -39613,6 +40086,9 @@
       <c r="CE158" t="n">
         <v>0</v>
       </c>
+      <c r="CF158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -39854,6 +40330,9 @@
       <c r="CE159" t="n">
         <v>0</v>
       </c>
+      <c r="CF159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -40103,6 +40582,9 @@
       <c r="CE160" t="n">
         <v>0</v>
       </c>
+      <c r="CF160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -40344,6 +40826,9 @@
       <c r="CE161" t="n">
         <v>0</v>
       </c>
+      <c r="CF161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -40601,6 +41086,9 @@
       <c r="CE162" t="n">
         <v>0</v>
       </c>
+      <c r="CF162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -40858,6 +41346,9 @@
       <c r="CE163" t="n">
         <v>0</v>
       </c>
+      <c r="CF163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -41103,6 +41594,9 @@
       <c r="CE164" t="n">
         <v>0</v>
       </c>
+      <c r="CF164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -41348,6 +41842,9 @@
       <c r="CE165" t="n">
         <v>0</v>
       </c>
+      <c r="CF165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -41605,6 +42102,9 @@
       <c r="CE166" t="n">
         <v>0</v>
       </c>
+      <c r="CF166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -41862,6 +42362,9 @@
       <c r="CE167" t="n">
         <v>0</v>
       </c>
+      <c r="CF167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -42119,6 +42622,9 @@
       <c r="CE168" t="n">
         <v>0</v>
       </c>
+      <c r="CF168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -42364,6 +42870,9 @@
       <c r="CE169" t="n">
         <v>0</v>
       </c>
+      <c r="CF169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -42605,6 +43114,9 @@
       <c r="CE170" t="n">
         <v>0</v>
       </c>
+      <c r="CF170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -42846,6 +43358,9 @@
       <c r="CE171" t="n">
         <v>0</v>
       </c>
+      <c r="CF171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -43095,6 +43610,9 @@
       <c r="CE172" t="n">
         <v>0</v>
       </c>
+      <c r="CF172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -43344,6 +43862,9 @@
       <c r="CE173" t="n">
         <v>0</v>
       </c>
+      <c r="CF173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -43585,6 +44106,9 @@
       <c r="CE174" t="n">
         <v>0</v>
       </c>
+      <c r="CF174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -43834,6 +44358,9 @@
       <c r="CE175" t="n">
         <v>0</v>
       </c>
+      <c r="CF175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -44083,6 +44610,9 @@
       <c r="CE176" t="n">
         <v>0</v>
       </c>
+      <c r="CF176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -44330,6 +44860,9 @@
         <v>0</v>
       </c>
       <c r="CE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -44553,6 +45086,9 @@
       <c r="CE178" t="n">
         <v>0</v>
       </c>
+      <c r="CF178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -44806,6 +45342,9 @@
       <c r="CE179" t="n">
         <v>0</v>
       </c>
+      <c r="CF179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -45055,6 +45594,9 @@
       <c r="CE180" t="n">
         <v>0</v>
       </c>
+      <c r="CF180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -45304,6 +45846,9 @@
       <c r="CE181" t="n">
         <v>0</v>
       </c>
+      <c r="CF181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -45553,6 +46098,9 @@
       <c r="CE182" t="n">
         <v>0</v>
       </c>
+      <c r="CF182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -45802,6 +46350,9 @@
       <c r="CE183" t="n">
         <v>0</v>
       </c>
+      <c r="CF183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -46055,6 +46606,9 @@
       <c r="CE184" t="n">
         <v>0</v>
       </c>
+      <c r="CF184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -46308,6 +46862,9 @@
       <c r="CE185" t="n">
         <v>0</v>
       </c>
+      <c r="CF185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -46553,6 +47110,9 @@
       <c r="CE186" t="n">
         <v>0</v>
       </c>
+      <c r="CF186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -46794,6 +47354,9 @@
       <c r="CE187" t="n">
         <v>0</v>
       </c>
+      <c r="CF187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -47043,6 +47606,9 @@
       <c r="CE188" t="n">
         <v>0</v>
       </c>
+      <c r="CF188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -47292,6 +47858,9 @@
       <c r="CE189" t="n">
         <v>0</v>
       </c>
+      <c r="CF189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -47541,6 +48110,9 @@
       <c r="CE190" t="n">
         <v>0</v>
       </c>
+      <c r="CF190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -47790,6 +48362,9 @@
       <c r="CE191" t="n">
         <v>0</v>
       </c>
+      <c r="CF191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -48035,6 +48610,9 @@
       <c r="CE192" t="n">
         <v>0</v>
       </c>
+      <c r="CF192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -48280,6 +48858,9 @@
       <c r="CE193" t="n">
         <v>0</v>
       </c>
+      <c r="CF193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -48521,6 +49102,9 @@
       <c r="CE194" t="n">
         <v>0</v>
       </c>
+      <c r="CF194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -48758,6 +49342,9 @@
       <c r="CE195" t="n">
         <v>0</v>
       </c>
+      <c r="CF195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -49017,6 +49604,9 @@
       <c r="CE196" t="n">
         <v>0</v>
       </c>
+      <c r="CF196" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -49266,6 +49856,9 @@
       <c r="CE197" t="n">
         <v>0</v>
       </c>
+      <c r="CF197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -49507,6 +50100,9 @@
       <c r="CE198" t="n">
         <v>0</v>
       </c>
+      <c r="CF198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -49748,6 +50344,9 @@
       <c r="CE199" t="n">
         <v>0</v>
       </c>
+      <c r="CF199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -49989,6 +50588,9 @@
       <c r="CE200" t="n">
         <v>0</v>
       </c>
+      <c r="CF200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -50238,6 +50840,9 @@
       <c r="CE201" t="n">
         <v>0</v>
       </c>
+      <c r="CF201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -50487,6 +51092,9 @@
       <c r="CE202" t="n">
         <v>0</v>
       </c>
+      <c r="CF202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -50738,6 +51346,9 @@
       <c r="CE203" t="n">
         <v>0</v>
       </c>
+      <c r="CF203" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -50995,6 +51606,9 @@
       <c r="CE204" t="n">
         <v>0</v>
       </c>
+      <c r="CF204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -51244,6 +51858,9 @@
       <c r="CE205" t="n">
         <v>0</v>
       </c>
+      <c r="CF205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -51497,6 +52114,9 @@
       <c r="CE206" t="n">
         <v>0</v>
       </c>
+      <c r="CF206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -51738,6 +52358,9 @@
       <c r="CE207" t="n">
         <v>0</v>
       </c>
+      <c r="CF207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -51987,6 +52610,9 @@
       <c r="CE208" t="n">
         <v>0</v>
       </c>
+      <c r="CF208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -52240,6 +52866,9 @@
       <c r="CE209" t="n">
         <v>0</v>
       </c>
+      <c r="CF209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -52487,6 +53116,9 @@
         <v>0</v>
       </c>
       <c r="CE210" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -52706,6 +53338,9 @@
       <c r="CE211" t="n">
         <v>0</v>
       </c>
+      <c r="CF211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -52955,6 +53590,9 @@
       <c r="CE212" t="n">
         <v>0</v>
       </c>
+      <c r="CF212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -53212,6 +53850,9 @@
       <c r="CE213" t="n">
         <v>0</v>
       </c>
+      <c r="CF213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -53469,6 +54110,9 @@
       <c r="CE214" t="n">
         <v>0</v>
       </c>
+      <c r="CF214" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
